--- a/Assignment3_DS700_Allen/Assignment3_DS700_Allen.xlsx
+++ b/Assignment3_DS700_Allen/Assignment3_DS700_Allen.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irgepi\ds\ds700\Assignment3_DS700_Allen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\source\repos\ds700\Assignment3_DS700_Allen\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4A05B106-B8D2-4FE2-A719-D962C5513890}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercise1" sheetId="1" r:id="rId1"/>
+    <sheet name="Exercise2a" sheetId="2" r:id="rId2"/>
+    <sheet name="Exercise2b" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Week</t>
   </si>
@@ -32,12 +36,6 @@
     <t>Demand</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>W1</t>
   </si>
   <si>
@@ -45,14 +43,91 @@
   </si>
   <si>
     <t>W3</t>
+  </si>
+  <si>
+    <t>Exercise 1: Forecasting Chicken Wing Demand</t>
+  </si>
+  <si>
+    <t>a. Forecast the demand for week 7 using a five-period moving average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Forecast the demand for week 7 using a three-period weighted moving average. </t>
+  </si>
+  <si>
+    <t>c. Forecast the demand for week 7 using exponential smoothing.</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F7 = F6 + Alpha * (A6 - F6)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>best exponential smoothing model for values of α = 0.2, α = 0.3, and α = 0.4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a. Develop a spreadsheet using the first seven days of demand to determine the  </t>
+  </si>
+  <si>
+    <t>Select the model with the smallest absolute deviation for seven periods.</t>
+  </si>
+  <si>
+    <t>Total Months</t>
+  </si>
+  <si>
+    <t>Level smoothing parameter (alpha)</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Level Estimate</t>
+  </si>
+  <si>
+    <t>Exercise 2: Forecasting tire demand</t>
+  </si>
+  <si>
+    <t>Compare the predictions on the basis of  the total absolute deviation for the seven periods.</t>
+  </si>
+  <si>
+    <t>the best exponential smoothing model found in part a with a three-period moving average model.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b. Develop another spreadsheet using the holdout sample for the second seven days to compare </t>
+  </si>
+  <si>
+    <t>SumAbsDev</t>
+  </si>
+  <si>
+    <t>AbsError</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,9 +161,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,110 +447,975 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>650</v>
+      </c>
+      <c r="C4">
+        <v>521</v>
+      </c>
+      <c r="D4">
+        <v>563</v>
+      </c>
+      <c r="E4">
+        <v>735</v>
+      </c>
+      <c r="F4">
+        <v>514</v>
+      </c>
+      <c r="G4">
+        <v>596</v>
+      </c>
+      <c r="H4" s="1">
+        <f>AVERAGE(C4:G4)</f>
+        <v>585.79999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="1">
+        <f>B9*E4+B8*F4+B7*G4</f>
+        <v>599.20000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>600</v>
+      </c>
+      <c r="H13" s="1">
+        <f>B13+B12*(B14-B13)</f>
+        <v>599.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <f>G4</f>
+        <v>596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64261396-1976-417C-B377-099FF0986029}">
+  <dimension ref="A1:E43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <f>SUM(E11:E17)</f>
+        <v>100.37708799999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <f>C10+$C$7*E11</f>
+        <v>198.4</v>
+      </c>
+      <c r="D11">
+        <f>C10</f>
+        <v>198</v>
+      </c>
+      <c r="E11">
+        <f>ABS(B11-D11)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>209</v>
+      </c>
+      <c r="C12">
+        <f t="shared" ref="C12:C17" si="0">C11+$C$7*E12</f>
+        <v>200.52</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D17" si="1">C11</f>
+        <v>198.4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E17" si="2">ABS(B12-D12)</f>
+        <v>10.599999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>215</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>203.416</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>200.52</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>14.47999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>208.0992</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>203.416</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>23.415999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15">
+        <v>190</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>211.71904000000001</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>208.0992</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>18.099199999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>195</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>215.062848</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>211.71904000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>16.719040000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>218.07541760000001</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>215.062848</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>15.062848000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E24:E30)</f>
+        <v>128.31064800000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C23">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <f>C23+$C$20*E24</f>
+        <v>198.6</v>
+      </c>
+      <c r="D24">
+        <f>C23</f>
+        <v>198</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E30" si="3">ABS(B24-D24)</f>
         <v>2</v>
       </c>
-      <c r="E2">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>209</v>
+      </c>
+      <c r="C25">
+        <f t="shared" ref="C25:C30" si="4">C24+$C$20*E25</f>
+        <v>201.72</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D30" si="5">C24</f>
+        <v>198.6</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>10.400000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="B26">
+        <v>215</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="4"/>
+        <v>205.70400000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="5"/>
+        <v>201.72</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>13.280000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
         <v>4</v>
       </c>
-      <c r="G2">
+      <c r="B27">
+        <v>180</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="4"/>
+        <v>213.4152</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="5"/>
+        <v>205.70400000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>25.704000000000008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>5</v>
       </c>
-      <c r="H2">
+      <c r="B28">
+        <v>190</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="4"/>
+        <v>220.43976000000001</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="5"/>
+        <v>213.4152</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>23.415199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="B29">
+        <v>195</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="4"/>
+        <v>228.07168799999999</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="5"/>
+        <v>220.43976000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>25.439760000000007</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B30">
+        <v>200</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="4"/>
+        <v>236.49319439999999</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="5"/>
+        <v>228.07168799999999</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>28.071687999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>0.4</v>
+      </c>
+      <c r="E33">
+        <f>SUM(E37:E43)</f>
+        <v>160.69971200000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>650</v>
-      </c>
-      <c r="D3">
-        <v>521</v>
-      </c>
-      <c r="E3">
-        <v>563</v>
-      </c>
-      <c r="F3">
-        <v>735</v>
-      </c>
-      <c r="G3">
-        <v>514</v>
-      </c>
-      <c r="H3">
-        <v>596</v>
-      </c>
-      <c r="I3" s="1">
-        <f>AVERAGE(D3:H3)</f>
-        <v>585.79999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>200</v>
+      </c>
+      <c r="C37">
+        <f>C36+$C$33*E37</f>
+        <v>198.8</v>
+      </c>
+      <c r="D37">
+        <f>C36</f>
+        <v>198</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ref="E37:E43" si="6">ABS(B37-D37)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>209</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:C43" si="7">C37+$C$33*E38</f>
+        <v>202.88</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38:D43" si="8">C37</f>
+        <v>198.8</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="6"/>
+        <v>10.199999999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>3</v>
       </c>
-      <c r="I8">
+      <c r="B39">
+        <v>215</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="7"/>
+        <v>207.72800000000001</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="8"/>
+        <v>202.88</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="6"/>
+        <v>12.120000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>180</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="7"/>
+        <v>218.81920000000002</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>207.72800000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="6"/>
+        <v>27.728000000000009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>190</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="7"/>
+        <v>230.34688000000003</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="8"/>
+        <v>218.81920000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="6"/>
+        <v>28.819200000000023</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>195</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="7"/>
+        <v>244.48563200000004</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="8"/>
+        <v>230.34688000000003</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="6"/>
+        <v>35.346880000000027</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.5</v>
-      </c>
-      <c r="I9">
-        <f>B9*F3+B10*G3+B11*H3</f>
-        <v>640.90000000000009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>0.2</v>
+      <c r="B43">
+        <v>200</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="7"/>
+        <v>262.27988480000005</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="8"/>
+        <v>244.48563200000004</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="6"/>
+        <v>44.485632000000038</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297A72C-24CD-4A09-9E22-0ACADE5E515D}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <f>SUM(D13:D19)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>208</v>
+      </c>
+      <c r="C13">
+        <f>AVERAGE(B10:B12)</f>
+        <v>195</v>
+      </c>
+      <c r="D13">
+        <f>ABS(B13-C13)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>186</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:C19" si="0">AVERAGE(B11:B13)</f>
+        <v>201</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:D19" si="1">ABS(B14-C14)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>193</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>197</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>195.66666666666666</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333428</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <v>188</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18">
+        <v>191</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>192.66666666666666</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+      <c r="B19">
+        <v>196</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assignment3_DS700_Allen/Assignment3_DS700_Allen.xlsx
+++ b/Assignment3_DS700_Allen/Assignment3_DS700_Allen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt\source\repos\ds700\Assignment3_DS700_Allen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4A05B106-B8D2-4FE2-A719-D962C5513890}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{61C5FEB5-35CF-4CD7-9DE6-244FE550C9E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,6 @@
     <sheet name="Exercise2b" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -450,7 +449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -608,9 +607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64261396-1976-417C-B377-099FF0986029}">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1215,7 +1212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297A72C-24CD-4A09-9E22-0ACADE5E515D}">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
